--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H2">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>56.09205341280458</v>
+        <v>254.903995897799</v>
       </c>
       <c r="R2">
-        <v>56.09205341280458</v>
+        <v>2294.135963080191</v>
       </c>
       <c r="S2">
-        <v>0.01361862145593795</v>
+        <v>0.04223500332079057</v>
       </c>
       <c r="T2">
-        <v>0.01361862145593795</v>
+        <v>0.04223500332079057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H3">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>243.0695997041929</v>
+        <v>258.552770441417</v>
       </c>
       <c r="R3">
-        <v>243.0695997041929</v>
+        <v>2326.974933972752</v>
       </c>
       <c r="S3">
-        <v>0.05901500594845593</v>
+        <v>0.04283956820579263</v>
       </c>
       <c r="T3">
-        <v>0.05901500594845593</v>
+        <v>0.04283956820579263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H4">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>132.9988757523184</v>
+        <v>141.5772337080224</v>
       </c>
       <c r="R4">
-        <v>132.9988757523184</v>
+        <v>1274.195103372202</v>
       </c>
       <c r="S4">
-        <v>0.03229087246291963</v>
+        <v>0.02345790977009279</v>
       </c>
       <c r="T4">
-        <v>0.03229087246291963</v>
+        <v>0.02345790977009279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H5">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>116.1537734314439</v>
+        <v>504.1517313658649</v>
       </c>
       <c r="R5">
-        <v>116.1537734314439</v>
+        <v>4537.365582292784</v>
       </c>
       <c r="S5">
-        <v>0.0282010405181657</v>
+        <v>0.08353282173323308</v>
       </c>
       <c r="T5">
-        <v>0.0282010405181657</v>
+        <v>0.08353282173323309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H6">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>503.3413735869315</v>
+        <v>511.3683149939467</v>
       </c>
       <c r="R6">
-        <v>503.3413735869315</v>
+        <v>4602.31483494552</v>
       </c>
       <c r="S6">
-        <v>0.1222065375204727</v>
+        <v>0.08472853634893883</v>
       </c>
       <c r="T6">
-        <v>0.1222065375204727</v>
+        <v>0.08472853634893883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H7">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>275.4101577826181</v>
+        <v>280.0129015023633</v>
       </c>
       <c r="R7">
-        <v>275.4101577826181</v>
+        <v>2520.11611352127</v>
       </c>
       <c r="S7">
-        <v>0.06686698838351698</v>
+        <v>0.04639529397396408</v>
       </c>
       <c r="T7">
-        <v>0.06686698838351698</v>
+        <v>0.04639529397396408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H8">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>362.3486051877178</v>
+        <v>1589.58675148897</v>
       </c>
       <c r="R8">
-        <v>362.3486051877178</v>
+        <v>14306.28076340073</v>
       </c>
       <c r="S8">
-        <v>0.08797482332875624</v>
+        <v>0.2633783809130198</v>
       </c>
       <c r="T8">
-        <v>0.08797482332875624</v>
+        <v>0.2633783809130198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H9">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>1570.203354264178</v>
+        <v>1612.340587313618</v>
       </c>
       <c r="R9">
-        <v>1570.203354264178</v>
+        <v>14511.06528582256</v>
       </c>
       <c r="S9">
-        <v>0.3812305627892449</v>
+        <v>0.267148460421699</v>
       </c>
       <c r="T9">
-        <v>0.3812305627892449</v>
+        <v>0.267148460421699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H10">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>859.1583689354826</v>
+        <v>882.878647006229</v>
       </c>
       <c r="R10">
-        <v>859.1583689354826</v>
+        <v>7945.907823056062</v>
       </c>
       <c r="S10">
-        <v>0.20859554759253</v>
+        <v>0.1462840253124692</v>
       </c>
       <c r="T10">
-        <v>0.20859554759253</v>
+        <v>0.1462840253124692</v>
       </c>
     </row>
   </sheetData>
